--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha3F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha3F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1034,7 +1034,7 @@
         <v>0.9615077257422631</v>
       </c>
       <c r="D15">
-        <v>1.029101065489703</v>
+        <v>1.029101065489702</v>
       </c>
       <c r="E15">
         <v>0.9790213677677105</v>
@@ -1049,19 +1049,19 @@
         <v>0.9107184732084199</v>
       </c>
       <c r="I15">
-        <v>0.9698016854779224</v>
+        <v>0.9698016854779219</v>
       </c>
       <c r="J15">
-        <v>1.029101065489703</v>
+        <v>1.029101065489702</v>
       </c>
       <c r="K15">
-        <v>1.004061216628707</v>
+        <v>1.004061216628706</v>
       </c>
       <c r="L15">
-        <v>0.982784471185485</v>
+        <v>0.9827844711854847</v>
       </c>
       <c r="M15">
-        <v>0.9832546231280053</v>
+        <v>0.9832546231280049</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9832546231280049</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.193525908319875</v>
+      </c>
+      <c r="D16">
+        <v>0.8636495835432553</v>
+      </c>
+      <c r="E16">
+        <v>0.9527511789956422</v>
+      </c>
+      <c r="F16">
+        <v>1.193525908319875</v>
+      </c>
+      <c r="G16">
+        <v>0.8947636091639845</v>
+      </c>
+      <c r="H16">
+        <v>1.160794165004746</v>
+      </c>
+      <c r="I16">
+        <v>1.008482133597503</v>
+      </c>
+      <c r="J16">
+        <v>0.8636495835432553</v>
+      </c>
+      <c r="K16">
+        <v>0.9082003812694488</v>
+      </c>
+      <c r="L16">
+        <v>1.050863144794662</v>
+      </c>
+      <c r="M16">
+        <v>1.012327763104168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.193525908319875</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
@@ -1037,7 +1037,7 @@
         <v>0.9615077257422631</v>
       </c>
       <c r="D15">
-        <v>1.029101065489702</v>
+        <v>1.029101065489703</v>
       </c>
       <c r="E15">
         <v>0.9790213677677105</v>
@@ -1052,19 +1052,19 @@
         <v>0.9107184732084199</v>
       </c>
       <c r="I15">
-        <v>0.9698016854779219</v>
+        <v>0.9698016854779224</v>
       </c>
       <c r="J15">
-        <v>1.029101065489702</v>
+        <v>1.029101065489703</v>
       </c>
       <c r="K15">
-        <v>1.004061216628706</v>
+        <v>1.004061216628707</v>
       </c>
       <c r="L15">
-        <v>0.9827844711854847</v>
+        <v>0.982784471185485</v>
       </c>
       <c r="M15">
-        <v>0.9832546231280049</v>
+        <v>0.9832546231280053</v>
       </c>
     </row>
     <row r="16" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5632000000000011</v>
+        <v>1.193525908319875</v>
       </c>
       <c r="D10">
-        <v>0.9345080000000023</v>
+        <v>0.8636495835432553</v>
       </c>
       <c r="E10">
-        <v>1.373200000000002</v>
+        <v>0.9527511789956422</v>
       </c>
       <c r="F10">
-        <v>0.5632000000000011</v>
+        <v>1.193525908319875</v>
       </c>
       <c r="G10">
-        <v>0.7573960000000016</v>
+        <v>0.8947636091639845</v>
       </c>
       <c r="H10">
-        <v>1.487591999999998</v>
+        <v>1.160794165004746</v>
       </c>
       <c r="I10">
-        <v>1.151316000000002</v>
+        <v>1.008482133597503</v>
       </c>
       <c r="J10">
-        <v>0.9345080000000023</v>
+        <v>0.8636495835432553</v>
       </c>
       <c r="K10">
-        <v>1.153854000000002</v>
+        <v>0.9082003812694488</v>
       </c>
       <c r="L10">
-        <v>0.8585270000000015</v>
+        <v>1.050863144794662</v>
       </c>
       <c r="M10">
-        <v>1.044535333333334</v>
+        <v>1.012327763104168</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.42</v>
+        <v>0.758057192404886</v>
       </c>
       <c r="D11">
-        <v>0.14</v>
+        <v>1.230266664069986</v>
       </c>
       <c r="E11">
-        <v>1.7604375</v>
+        <v>1.104538688544797</v>
       </c>
       <c r="F11">
-        <v>0.42</v>
+        <v>0.758057192404886</v>
       </c>
       <c r="G11">
-        <v>0.45</v>
+        <v>0.8182279735178831</v>
       </c>
       <c r="H11">
-        <v>1.6001375</v>
+        <v>1.806161283372751</v>
       </c>
       <c r="I11">
-        <v>1.411399999999998</v>
+        <v>0.9865825605729284</v>
       </c>
       <c r="J11">
-        <v>0.14</v>
+        <v>1.230266664069986</v>
       </c>
       <c r="K11">
-        <v>0.9502187500000001</v>
+        <v>1.167402676307392</v>
       </c>
       <c r="L11">
-        <v>0.685109375</v>
+        <v>0.9627299343561389</v>
       </c>
       <c r="M11">
-        <v>0.9636624999999999</v>
+        <v>1.117305727080539</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6664054890496031</v>
+        <v>0.7589811257689935</v>
       </c>
       <c r="D12">
-        <v>0.4883927640064026</v>
+        <v>1.234181831841632</v>
       </c>
       <c r="E12">
-        <v>1.426963998924803</v>
+        <v>1.102941784976655</v>
       </c>
       <c r="F12">
-        <v>0.6664054890496031</v>
+        <v>0.7589811257689935</v>
       </c>
       <c r="G12">
-        <v>0.6838353611775988</v>
+        <v>0.8207279325533646</v>
       </c>
       <c r="H12">
-        <v>1.350804546355197</v>
+        <v>1.799472068638838</v>
       </c>
       <c r="I12">
-        <v>1.225006526976004</v>
+        <v>0.9855191801030324</v>
       </c>
       <c r="J12">
-        <v>0.4883927640064026</v>
+        <v>1.234181831841632</v>
       </c>
       <c r="K12">
-        <v>0.9576783814656027</v>
+        <v>1.168561808409143</v>
       </c>
       <c r="L12">
-        <v>0.8120419352576029</v>
+        <v>0.9637714670890684</v>
       </c>
       <c r="M12">
-        <v>0.9735681144149346</v>
+        <v>1.116970653980419</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9877470517650069</v>
+        <v>0.7577226794572892</v>
       </c>
       <c r="D13">
-        <v>0.9957049358836119</v>
+        <v>1.231714785333718</v>
       </c>
       <c r="E13">
-        <v>0.995483022488447</v>
+        <v>1.10393165149707</v>
       </c>
       <c r="F13">
-        <v>0.9877470517650069</v>
+        <v>0.7577226794572892</v>
       </c>
       <c r="G13">
-        <v>0.9912090312430195</v>
+        <v>0.8190883809577582</v>
       </c>
       <c r="H13">
-        <v>0.9983375161198511</v>
+        <v>1.806415790952808</v>
       </c>
       <c r="I13">
-        <v>0.9916453569570173</v>
+        <v>0.9857676872138565</v>
       </c>
       <c r="J13">
-        <v>0.9957049358836119</v>
+        <v>1.231714785333718</v>
       </c>
       <c r="K13">
-        <v>0.9955939791860294</v>
+        <v>1.167823218415394</v>
       </c>
       <c r="L13">
-        <v>0.9916705154755181</v>
+        <v>0.9627729489363418</v>
       </c>
       <c r="M13">
-        <v>0.9933544857428256</v>
+        <v>1.11744016256875</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.054455857472574</v>
+        <v>0.5632000000000011</v>
       </c>
       <c r="D14">
-        <v>1.030516624576193</v>
+        <v>0.9345080000000023</v>
       </c>
       <c r="E14">
-        <v>0.9632128425060728</v>
+        <v>1.373200000000002</v>
       </c>
       <c r="F14">
-        <v>1.054455857472574</v>
+        <v>0.5632000000000011</v>
       </c>
       <c r="G14">
-        <v>0.995467729785534</v>
+        <v>0.7573960000000016</v>
       </c>
       <c r="H14">
-        <v>0.9308028245614358</v>
+        <v>1.487591999999998</v>
       </c>
       <c r="I14">
-        <v>0.9854158957792784</v>
+        <v>1.151316000000002</v>
       </c>
       <c r="J14">
-        <v>1.030516624576193</v>
+        <v>0.9345080000000023</v>
       </c>
       <c r="K14">
-        <v>0.9968647335411329</v>
+        <v>1.153854000000002</v>
       </c>
       <c r="L14">
-        <v>1.025660295506853</v>
+        <v>0.8585270000000015</v>
       </c>
       <c r="M14">
-        <v>0.9933119624468479</v>
+        <v>1.044535333333334</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9615077257422631</v>
+        <v>0.42</v>
       </c>
       <c r="D15">
-        <v>1.029101065489703</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0.9790213677677105</v>
+        <v>1.7604375</v>
       </c>
       <c r="F15">
-        <v>0.9615077257422631</v>
+        <v>0.42</v>
       </c>
       <c r="G15">
-        <v>1.049377421082012</v>
+        <v>0.45</v>
       </c>
       <c r="H15">
-        <v>0.9107184732084199</v>
+        <v>1.6001375</v>
       </c>
       <c r="I15">
-        <v>0.9698016854779224</v>
+        <v>1.411399999999998</v>
       </c>
       <c r="J15">
-        <v>1.029101065489703</v>
+        <v>0.14</v>
       </c>
       <c r="K15">
-        <v>1.004061216628707</v>
+        <v>0.9502187500000001</v>
       </c>
       <c r="L15">
-        <v>0.982784471185485</v>
+        <v>0.685109375</v>
       </c>
       <c r="M15">
-        <v>0.9832546231280053</v>
+        <v>0.9636624999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.193525908319875</v>
+        <v>0.6664054890496031</v>
       </c>
       <c r="D16">
-        <v>0.8636495835432553</v>
+        <v>0.4883927640064026</v>
       </c>
       <c r="E16">
-        <v>0.9527511789956422</v>
+        <v>1.426963998924803</v>
       </c>
       <c r="F16">
-        <v>1.193525908319875</v>
+        <v>0.6664054890496031</v>
       </c>
       <c r="G16">
-        <v>0.8947636091639845</v>
+        <v>0.6838353611775988</v>
       </c>
       <c r="H16">
-        <v>1.160794165004746</v>
+        <v>1.350804546355197</v>
       </c>
       <c r="I16">
-        <v>1.008482133597503</v>
+        <v>1.225006526976004</v>
       </c>
       <c r="J16">
-        <v>0.8636495835432553</v>
+        <v>0.4883927640064026</v>
       </c>
       <c r="K16">
-        <v>0.9082003812694488</v>
+        <v>0.9576783814656027</v>
       </c>
       <c r="L16">
-        <v>1.050863144794662</v>
+        <v>0.8120419352576029</v>
       </c>
       <c r="M16">
-        <v>1.012327763104168</v>
+        <v>0.9735681144149346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9877470517650069</v>
+      </c>
+      <c r="D17">
+        <v>0.9957049358836119</v>
+      </c>
+      <c r="E17">
+        <v>0.995483022488447</v>
+      </c>
+      <c r="F17">
+        <v>0.9877470517650069</v>
+      </c>
+      <c r="G17">
+        <v>0.9912090312430195</v>
+      </c>
+      <c r="H17">
+        <v>0.9983375161198511</v>
+      </c>
+      <c r="I17">
+        <v>0.9916453569570173</v>
+      </c>
+      <c r="J17">
+        <v>0.9957049358836119</v>
+      </c>
+      <c r="K17">
+        <v>0.9955939791860294</v>
+      </c>
+      <c r="L17">
+        <v>0.9916705154755181</v>
+      </c>
+      <c r="M17">
+        <v>0.9933544857428256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.054455857472574</v>
+      </c>
+      <c r="D18">
+        <v>1.030516624576193</v>
+      </c>
+      <c r="E18">
+        <v>0.9632128425060728</v>
+      </c>
+      <c r="F18">
+        <v>1.054455857472574</v>
+      </c>
+      <c r="G18">
+        <v>0.995467729785534</v>
+      </c>
+      <c r="H18">
+        <v>0.9308028245614358</v>
+      </c>
+      <c r="I18">
+        <v>0.9854158957792784</v>
+      </c>
+      <c r="J18">
+        <v>1.030516624576193</v>
+      </c>
+      <c r="K18">
+        <v>0.9968647335411329</v>
+      </c>
+      <c r="L18">
+        <v>1.025660295506853</v>
+      </c>
+      <c r="M18">
+        <v>0.9933119624468479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9615077257422631</v>
+      </c>
+      <c r="D19">
+        <v>1.029101065489702</v>
+      </c>
+      <c r="E19">
+        <v>0.9790213677677105</v>
+      </c>
+      <c r="F19">
+        <v>0.9615077257422631</v>
+      </c>
+      <c r="G19">
+        <v>1.049377421082012</v>
+      </c>
+      <c r="H19">
+        <v>0.9107184732084199</v>
+      </c>
+      <c r="I19">
+        <v>0.9698016854779219</v>
+      </c>
+      <c r="J19">
+        <v>1.029101065489702</v>
+      </c>
+      <c r="K19">
+        <v>1.004061216628706</v>
+      </c>
+      <c r="L19">
+        <v>0.9827844711854847</v>
+      </c>
+      <c r="M19">
+        <v>0.9832546231280049</v>
       </c>
     </row>
   </sheetData>
